--- a/config_1.26/activity_year_config.xlsx
+++ b/config_1.26/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="162">
   <si>
     <t>id|行号</t>
   </si>
@@ -631,7 +631,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>灵珠排行榜</t>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">act_041_yybjsj </t>
+  </si>
+  <si>
+    <t>"GameComAct1","panel_act"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1109,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2792,7 +2807,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>154</v>
@@ -2832,16 +2847,16 @@
         <v>146</v>
       </c>
       <c r="S30" s="16">
-        <v>44215.3125</v>
+        <v>44222.3125</v>
       </c>
       <c r="T30" s="27">
-        <v>1611014400</v>
+        <v>1611619200</v>
       </c>
       <c r="U30" s="16">
-        <v>44221.999988425923</v>
+        <v>44228.999988425923</v>
       </c>
       <c r="V30" s="27">
-        <v>1611590399</v>
+        <v>1612195199</v>
       </c>
       <c r="W30" s="14"/>
     </row>
@@ -2893,16 +2908,16 @@
         <v>49</v>
       </c>
       <c r="S31" s="16">
-        <v>44215.3125</v>
+        <v>44222.3125</v>
       </c>
       <c r="T31" s="27">
-        <v>1611014400</v>
+        <v>1611619200</v>
       </c>
       <c r="U31" s="16">
-        <v>44221.999988425923</v>
+        <v>44228.999988425923</v>
       </c>
       <c r="V31" s="27">
-        <v>1611590399</v>
+        <v>1612195199</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2913,59 +2928,116 @@
       <c r="B32" s="11">
         <v>31</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <v>3</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="15">
-        <v>1</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14">
-        <v>1</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14" t="s">
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="T32" s="27">
+      <c r="T32" s="28">
         <v>1611014400</v>
       </c>
-      <c r="U32" s="16">
+      <c r="U32" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="V32" s="27">
+      <c r="V32" s="28">
         <v>1611590399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>32</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S33" s="16">
+        <v>44222.3125</v>
+      </c>
+      <c r="T33" s="27">
+        <v>1611619200</v>
+      </c>
+      <c r="U33" s="16">
+        <v>44228.999988425923</v>
+      </c>
+      <c r="V33" s="27">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/activity_year_config.xlsx
+++ b/config_1.26/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
   <si>
     <t>id|行号</t>
   </si>
@@ -643,10 +643,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">act_041_yybjsj </t>
-  </si>
-  <si>
-    <t>"GameComAct1","panel_act"</t>
+    <t>act_041_yybjsj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_041_yybjsj","panel_act"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_sjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_sjb","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1136,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2880,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>23</v>
@@ -2902,7 +2911,7 @@
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>49</v>

--- a/config_1.26/activity_year_config.xlsx
+++ b/config_1.26/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>id|行号</t>
   </si>
@@ -651,11 +651,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_sjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_sjb","panel"</t>
+    <t>act_041_yybjsj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_sjb","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1136,10 +1140,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2889,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>23</v>
@@ -2911,7 +2915,7 @@
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>49</v>
@@ -3007,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>23</v>

--- a/config_1.26/activity_year_config.xlsx
+++ b/config_1.26/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
   <si>
     <t>id|行号</t>
   </si>
@@ -640,10 +640,6 @@
   </si>
   <si>
     <t>赢一把就睡觉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_041_yybjsj</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1140,10 +1136,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2893,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>23</v>
@@ -2915,7 +2911,7 @@
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>49</v>
@@ -3011,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>23</v>
@@ -3025,9 +3021,7 @@
       <c r="K33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="L33" s="17"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14">
@@ -3035,7 +3029,7 @@
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R33" s="14" t="s">
         <v>147</v>
